--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/17/word_level_predictions_17.xlsx
@@ -502,210 +502,210 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="b">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Attitude</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="b">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Attitude</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5182,210 +5182,210 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" t="n">
         <v>4</v>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" t="n">
         <v>0</v>
       </c>
-      <c r="E92" s="2" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" t="n">
         <v>4</v>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>4</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>2</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>4</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>3</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6118,158 +6118,158 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="n">
         <v>5</v>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" t="n">
         <v>3</v>
       </c>
-      <c r="E110" s="2" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F110" s="2" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>5</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>Spot-Check</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" t="n">
         <v>4</v>
       </c>
-      <c r="E111" s="2" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" s="2" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>5</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" t="n">
         <v>5</v>
       </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/17/word_level_predictions_17.xlsx
@@ -502,210 +502,210 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Attitude</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Attitude</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>mode</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5182,210 +5182,210 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K92" t="b">
-        <v>1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="D93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K93" t="b">
-        <v>1</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>2</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>4</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6118,158 +6118,158 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" s="2" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E110" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>Spot-Check</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E111" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F111" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
